--- a/3f_Hashtag_tests.xlsx
+++ b/3f_Hashtag_tests.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Normality Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Kruskal-Wallis Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Dunn's Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Statistical Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Percentage Change" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Metric</t>
   </si>
@@ -36,7 +36,10 @@
     <t>Not Normal</t>
   </si>
   <si>
-    <t>H-Statistic</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Statistic</t>
   </si>
   <si>
     <t>p-value</t>
@@ -45,19 +48,16 @@
     <t>Significance</t>
   </si>
   <si>
+    <t>Mann-Whitney U</t>
+  </si>
+  <si>
     <t>Significant</t>
   </si>
   <si>
     <t>Not Significant</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>No Hashtag</t>
-  </si>
-  <si>
-    <t>with Hashtag</t>
+    <t>Percentage Change</t>
   </si>
 </sst>
 </file>
@@ -460,13 +460,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,47 +479,59 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>20.64192017988952</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5.537036131685664E-06</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>431798.5</v>
+      </c>
+      <c r="D2">
+        <v>5.538264472066069E-06</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.490537406578459</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.4836876775923877</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>390686</v>
+      </c>
+      <c r="D3">
+        <v>0.4837168610422262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>6.752539039842929</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.009361437317592161</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>410966</v>
+      </c>
+      <c r="D4">
+        <v>0.009362713073646816</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -529,80 +541,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5.53703613168557E-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>-31.22381248610305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>5.53703613168557E-06</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-27.60533767393889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.00936143731759235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0.00936143731759235</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B4">
+        <v>-34.30937102755636</v>
       </c>
     </row>
   </sheetData>

--- a/3f_Hashtag_tests.xlsx
+++ b/3f_Hashtag_tests.xlsx
@@ -7,30 +7,40 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Normality Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistical Tests" sheetId="2" r:id="rId2"/>
-    <sheet name="Percentage Change" sheetId="3" r:id="rId3"/>
+    <sheet name="Average Interactions" sheetId="1" r:id="rId1"/>
+    <sheet name="Normality Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Statistical Tests" sheetId="3" r:id="rId3"/>
+    <sheet name="Percentage Change" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+  <si>
+    <t>Hashtag Presence</t>
+  </si>
+  <si>
+    <t>reactions</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>No Hashtag</t>
+  </si>
+  <si>
+    <t>With Hashtag</t>
+  </si>
   <si>
     <t>Metric</t>
   </si>
   <si>
     <t>Normality</t>
-  </si>
-  <si>
-    <t>reactions</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>shares</t>
   </si>
   <si>
     <t>Not Normal</t>
@@ -415,42 +425,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3928.517680339462</v>
+      </c>
+      <c r="C2">
+        <v>82.62800565770863</v>
+      </c>
+      <c r="D2">
+        <v>825.7284299858558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>2701.884686346863</v>
+      </c>
+      <c r="C3">
+        <v>59.81826568265683</v>
+      </c>
+      <c r="D3">
+        <v>542.4261992619926</v>
       </c>
     </row>
   </sheetData>
@@ -459,6 +479,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -468,27 +533,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>431798.5</v>
@@ -497,15 +562,15 @@
         <v>5.538264472066069E-06</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>390686</v>
@@ -514,15 +579,15 @@
         <v>0.4837168610422262</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>410966</v>
@@ -531,7 +596,7 @@
         <v>0.009362713073646816</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -549,15 +614,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-31.22381248610305</v>
@@ -565,7 +630,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>-27.60533767393889</v>
@@ -573,7 +638,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-34.30937102755636</v>
